--- a/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.387839755192997</v>
+        <v>0.3901010947117797</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4402654627315313</v>
+        <v>0.447352666636932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3959910221028087</v>
+        <v>0.399643836277824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.572149072514808</v>
+        <v>0.575376943741293</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5044647162452359</v>
+        <v>0.5042296882565708</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4928149329242631</v>
+        <v>0.4939275186383981</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4786833190724529</v>
+        <v>0.4807663580200886</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.7406729705772988</v>
+        <v>0.7403737404313796</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4625063426160998</v>
+        <v>0.4591297558166063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4868151282287411</v>
+        <v>0.4833860377769394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4558306218914744</v>
+        <v>0.4572592126335833</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6742832772312709</v>
+        <v>0.670570494528069</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5089716395797955</v>
+        <v>0.5103688068465102</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5642110866065324</v>
+        <v>0.5709726727592974</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5155031109873667</v>
+        <v>0.5246081287213407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6858619701703654</v>
+        <v>0.6952763220583038</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6273653978060582</v>
+        <v>0.6357688305575331</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6194483655818692</v>
+        <v>0.6182106082489073</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5990944420149764</v>
+        <v>0.6000054971400443</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8241237485844182</v>
+        <v>0.8270088062629709</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5528020853141259</v>
+        <v>0.5486351454525157</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5746072541081787</v>
+        <v>0.5742132825855063</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.540594825732272</v>
+        <v>0.5381453976354731</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7438608757030204</v>
+        <v>0.7431933582930513</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.4520505745494861</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4497453549851338</v>
+        <v>0.4497453549851337</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.5875689662694518</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4395208234973185</v>
+        <v>0.4388264840815934</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4602678802756437</v>
+        <v>0.4603088196650959</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4089270900050526</v>
+        <v>0.4072300051069146</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3976193731148324</v>
+        <v>0.3966074678990814</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.547738572378787</v>
+        <v>0.5464581820671146</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5936446942305373</v>
+        <v>0.5928785066077208</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4884350506471871</v>
+        <v>0.4847040141333055</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5105014275792875</v>
+        <v>0.5152843532280333</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5049939237248495</v>
+        <v>0.5062482725972897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5421422498232056</v>
+        <v>0.542514167396541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4593101455964487</v>
+        <v>0.4599447731018894</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4734851667062831</v>
+        <v>0.4685216077484813</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5308873078762013</v>
+        <v>0.5335560437139945</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5468964258035168</v>
+        <v>0.550839331354916</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.499483784277576</v>
+        <v>0.4985812704702127</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5023054822662683</v>
+        <v>0.5061331265051793</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6296047925314191</v>
+        <v>0.6299862926720881</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6801717783133205</v>
+        <v>0.6816430626687181</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5764802489700575</v>
+        <v>0.5696766309701248</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5935255253571233</v>
+        <v>0.5936331112634126</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5689306083963142</v>
+        <v>0.5683432636004582</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6060737267471106</v>
+        <v>0.6053525179631141</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5264262478811673</v>
+        <v>0.5262302152670294</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5350727687341679</v>
+        <v>0.535660022097759</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.336784253159488</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.5179315589920916</v>
+        <v>0.5179315589920918</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5617370707781214</v>
@@ -969,7 +969,7 @@
         <v>0.3197143694440833</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.5224578312451162</v>
+        <v>0.5224578312451164</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3650080447644692</v>
+        <v>0.3700279145818119</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3712303070723728</v>
+        <v>0.3659826701556553</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2528019640489993</v>
+        <v>0.2553643109125202</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4680446961378984</v>
+        <v>0.4704855423945373</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6377743131385922</v>
+        <v>0.6452094845947849</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4717547710952735</v>
+        <v>0.4706379375538971</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2853311755191572</v>
+        <v>0.2828006000863833</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4752360006972227</v>
+        <v>0.4722553163499841</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5236583800283399</v>
+        <v>0.526327603036606</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4404911617738825</v>
+        <v>0.4344182226390322</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2866560384719137</v>
+        <v>0.2888362767126268</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4871693903967497</v>
+        <v>0.4891452078122984</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4810521300703197</v>
+        <v>0.4797426712548264</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4820011183888991</v>
+        <v>0.4760047935268598</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3510368102049098</v>
+        <v>0.3548629945096057</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5740238239403177</v>
+        <v>0.5831424797606032</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7377654724718806</v>
+        <v>0.7454678553536285</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5809385478045638</v>
+        <v>0.5776933210633828</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3899837702641795</v>
+        <v>0.3881829071304377</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5620139931515108</v>
+        <v>0.565769011128984</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.596908361242918</v>
+        <v>0.6006062044278293</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5155630121943395</v>
+        <v>0.5133701903886758</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3594558112209316</v>
+        <v>0.3529059910578285</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5589790717185716</v>
+        <v>0.5584529699529703</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3622688813432373</v>
+        <v>0.3565234974343318</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.320962949201395</v>
+        <v>0.3195550581415101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5043878222602002</v>
+        <v>0.5058453129848645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3944838155401725</v>
+        <v>0.382215587377865</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5571171867293558</v>
+        <v>0.5550072690386822</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.454210660713007</v>
+        <v>0.4517102761736014</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5850545119795633</v>
+        <v>0.5882896167968573</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4851955002233437</v>
+        <v>0.4864663241306091</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4736185424014688</v>
+        <v>0.4765810920775798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4086859709472286</v>
+        <v>0.4007041608148477</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.5598707996743779</v>
+        <v>0.5612421854572028</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4594284358069162</v>
+        <v>0.4581493824850627</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4652325241964416</v>
+        <v>0.4617301405376289</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4273928150809153</v>
+        <v>0.4296847331172124</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6074247833606476</v>
+        <v>0.6137666618326362</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5229540105478234</v>
+        <v>0.5260116313950918</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6533054203713476</v>
+        <v>0.6530995255053885</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5616078681785707</v>
+        <v>0.5582065546902917</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6820605324441396</v>
+        <v>0.6924152106166461</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5848775943530901</v>
+        <v>0.5843392244779068</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5458579115550067</v>
+        <v>0.5428836949317742</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4825434272834492</v>
+        <v>0.4780527061496828</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6334289580039077</v>
+        <v>0.63306959878173</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5422367347508008</v>
+        <v>0.5393938886394684</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3923392208403218</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.5120885137998411</v>
+        <v>0.5120885137998412</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.4147798476892744</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.270698898679766</v>
+        <v>0.2826915351067106</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3757834025361366</v>
+        <v>0.3750821108253538</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.24576814546472</v>
+        <v>0.2502711296940613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3472594694414256</v>
+        <v>0.3438893102932224</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4152993429416794</v>
+        <v>0.4198519543729716</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5167575105113368</v>
+        <v>0.507170193263525</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3283418380653843</v>
+        <v>0.3316486573839651</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4618328163510307</v>
+        <v>0.460882379188185</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3684276016790771</v>
+        <v>0.3722305143783132</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4676007430447977</v>
+        <v>0.4668321824177104</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3060901974845695</v>
+        <v>0.3098344793999908</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4241993567593472</v>
+        <v>0.4229373752098566</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4064895563590822</v>
+        <v>0.4062308748617156</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5255085435729051</v>
+        <v>0.5139064141204882</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3772863170096843</v>
+        <v>0.381042269560859</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4626894054636979</v>
+        <v>0.4637603373435543</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5579758004015085</v>
+        <v>0.5642579891665577</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.650408666374685</v>
+        <v>0.6438508604724691</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4631062076581213</v>
+        <v>0.4622110977413778</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5599319659202513</v>
+        <v>0.5560649073046644</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4630033930774181</v>
+        <v>0.4666195457262807</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5672120939324933</v>
+        <v>0.563953179328189</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3962715293889918</v>
+        <v>0.4022955041509132</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4984683304905023</v>
+        <v>0.4998856323424481</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4541426512811801</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.6231207302243142</v>
+        <v>0.6231207302243139</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5621514644228596</v>
@@ -1377,7 +1377,7 @@
         <v>0.4028768585779268</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.584102054375381</v>
+        <v>0.5841020543753811</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3752911527683801</v>
+        <v>0.3736440544686833</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4139292571303098</v>
+        <v>0.41094915585643</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2935584646549678</v>
+        <v>0.2943475577404404</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4922611814886584</v>
+        <v>0.4922961865715996</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6320130426975566</v>
+        <v>0.6299026638820207</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4984840416640748</v>
+        <v>0.5056322821152803</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3965616618082707</v>
+        <v>0.3932721165238673</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5685880459183054</v>
+        <v>0.5743956194604758</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5187785525516008</v>
+        <v>0.5180930531678292</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4736644421608831</v>
+        <v>0.4761769142599225</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3601844383549536</v>
+        <v>0.3620288015534321</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5451727255889285</v>
+        <v>0.5444139185062399</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4984042118129178</v>
+        <v>0.4958608860288429</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5357901538937916</v>
+        <v>0.5327091064055645</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4120855494618865</v>
+        <v>0.411074047118353</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6015352971815646</v>
+        <v>0.6011228395008401</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7350921091978236</v>
+        <v>0.7426676567710979</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.615709294642248</v>
+        <v>0.6236625359692399</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5114617909431129</v>
+        <v>0.5203041958723145</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6680609614129055</v>
+        <v>0.6761450264211118</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6018077473837607</v>
+        <v>0.6009421891556505</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.560693023901416</v>
+        <v>0.5602245263995326</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4435311592531069</v>
+        <v>0.4458338402512992</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6194275140550543</v>
+        <v>0.6197180741382965</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.4914902052190604</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.5198676438782883</v>
+        <v>0.5198676438782882</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.5154204612997072</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4190594539264557</v>
+        <v>0.4175480265433077</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3804585409828477</v>
+        <v>0.3780658970642317</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3474886716909029</v>
+        <v>0.3462734439760277</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4469605626135205</v>
+        <v>0.4455179718779479</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5358515746496859</v>
+        <v>0.5336636029138292</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4917986103068099</v>
+        <v>0.486564307167902</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4540626090879379</v>
+        <v>0.4494144429500493</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4891720558892391</v>
+        <v>0.4844719293341157</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4896836507657717</v>
+        <v>0.4882437005393335</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4459036219472157</v>
+        <v>0.445621668711282</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4102107277760677</v>
+        <v>0.4103202840400117</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4776847399933614</v>
+        <v>0.4794594919559796</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5011216673278273</v>
+        <v>0.4958364476712559</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.457956626720614</v>
+        <v>0.4597117006197343</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4220545923361914</v>
+        <v>0.4264769365143486</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5304058277791607</v>
+        <v>0.5359684192400519</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.6147169912465884</v>
+        <v>0.6106474450878213</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5685444256593071</v>
+        <v>0.567846443400203</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5311639377591608</v>
+        <v>0.5305826947546126</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5548869714760364</v>
+        <v>0.5520111593684545</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5421062202434727</v>
+        <v>0.5471978392135165</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5031607450884569</v>
+        <v>0.5013208515441783</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4701167135921366</v>
+        <v>0.4677114385370902</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5341072577242839</v>
+        <v>0.5363435725164923</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.3188394474719916</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3064145314326752</v>
+        <v>0.3064145314326753</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.4700121497478889</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.3462491000866708</v>
+        <v>0.3471435231556363</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3809871203637319</v>
+        <v>0.3777022151276483</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2844187610229728</v>
+        <v>0.2879212834936785</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.274295033103417</v>
+        <v>0.2738194246976829</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.4334998995654387</v>
+        <v>0.4370391115109544</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.4596060138250979</v>
+        <v>0.4617946506226637</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3886694786136667</v>
+        <v>0.3885178940588098</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3680952294683718</v>
+        <v>0.371609596970922</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4000423380922317</v>
+        <v>0.4009261463011678</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4330765688330971</v>
+        <v>0.4306624297364541</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3496174546971009</v>
+        <v>0.3476814213789709</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3322836738497402</v>
+        <v>0.3313510883321246</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4169523059574112</v>
+        <v>0.4165708366570526</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4526655311100081</v>
+        <v>0.4511147243102561</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3525142160898609</v>
+        <v>0.3530737227189896</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3389449839884067</v>
+        <v>0.338272248643422</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.5048956880181534</v>
+        <v>0.509937721484516</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5292073933639304</v>
+        <v>0.5328977096459991</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4568923221443256</v>
+        <v>0.4615189134647885</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4276684319319198</v>
+        <v>0.4282794421994195</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4515293514236315</v>
+        <v>0.4524788987031508</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4845838438670506</v>
+        <v>0.4828065144520394</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3976047663069919</v>
+        <v>0.3972774062648826</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.3754211158421951</v>
+        <v>0.3745003179304889</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.3894746405798993</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.4547680896157147</v>
+        <v>0.4547680896157148</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.5705339626011435</v>
@@ -1773,7 +1773,7 @@
         <v>0.478273873143024</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.5293792450541746</v>
+        <v>0.5293792450541744</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.4992515672809898</v>
@@ -1785,7 +1785,7 @@
         <v>0.4348352822758739</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.493108237457962</v>
+        <v>0.4931082374579619</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4095674504047762</v>
+        <v>0.407989781229815</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4217463439527973</v>
+        <v>0.4225608841561045</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3735907349036597</v>
+        <v>0.3697753228084997</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4367627928679932</v>
+        <v>0.4363542408794456</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5525015884179793</v>
+        <v>0.5538512447247268</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.524213308600714</v>
+        <v>0.5246853913671619</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.460829771090308</v>
+        <v>0.4615034713348286</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5147631133909514</v>
+        <v>0.5152136935730511</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4866476978769131</v>
+        <v>0.4872718249871985</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.4801786269210465</v>
+        <v>0.4799680084678725</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.4209052520940043</v>
+        <v>0.4224083274331116</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.4816579313400714</v>
+        <v>0.4805354574171734</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4451812457700149</v>
+        <v>0.4424922896567671</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4578554008318809</v>
+        <v>0.458007807657544</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4084013041644168</v>
+        <v>0.406091569091004</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4731500283535194</v>
+        <v>0.4737041806728017</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.5872208854678156</v>
+        <v>0.5882591944745356</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5590731126531147</v>
+        <v>0.5600963739409184</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4971996481003389</v>
+        <v>0.4970641357587558</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5443667827508027</v>
+        <v>0.5459186385306525</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5108434802487847</v>
+        <v>0.5114678552534737</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.5054677359646127</v>
+        <v>0.504313992766655</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.4458991768283715</v>
+        <v>0.4460456948658646</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.5046836766909504</v>
+        <v>0.5049980755412307</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>105884</v>
+        <v>106501</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>129763</v>
+        <v>131852</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>116327</v>
+        <v>117400</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>182427</v>
+        <v>183456</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>131584</v>
+        <v>131522</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>141559</v>
+        <v>141878</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>138197</v>
+        <v>138799</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>234098</v>
+        <v>234003</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>246908</v>
+        <v>245106</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>283318</v>
+        <v>281322</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>265505</v>
+        <v>266337</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>428106</v>
+        <v>425749</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>138954</v>
+        <v>139336</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>166294</v>
+        <v>168287</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>151435</v>
+        <v>154109</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>218684</v>
+        <v>221685</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>163641</v>
+        <v>165833</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>177933</v>
+        <v>177578</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>172960</v>
+        <v>173223</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>260473</v>
+        <v>261385</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>295112</v>
+        <v>292888</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>334412</v>
+        <v>334182</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>314877</v>
+        <v>313450</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>472282</v>
+        <v>471858</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>216717</v>
+        <v>216374</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>232678</v>
+        <v>232699</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>205517</v>
+        <v>204664</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>210602</v>
+        <v>210066</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>276032</v>
+        <v>275387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>310930</v>
+        <v>310529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>255493</v>
+        <v>253541</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>278240</v>
+        <v>280846</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>503491</v>
+        <v>504742</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>558023</v>
+        <v>558405</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>471096</v>
+        <v>471746</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>508849</v>
+        <v>503515</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>261767</v>
+        <v>263083</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>276471</v>
+        <v>278464</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>251028</v>
+        <v>250574</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>266050</v>
+        <v>268077</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>317289</v>
+        <v>317481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>356250</v>
+        <v>357021</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>301548</v>
+        <v>297989</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>323490</v>
+        <v>323549</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>567237</v>
+        <v>566652</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>623827</v>
+        <v>623085</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>539934</v>
+        <v>539733</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>575037</v>
+        <v>575668</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>116381</v>
+        <v>117982</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>120296</v>
+        <v>118595</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>80534</v>
+        <v>81350</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>146999</v>
+        <v>147766</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>213917</v>
+        <v>216411</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>160878</v>
+        <v>160497</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>95959</v>
+        <v>95108</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>167006</v>
+        <v>165959</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>342608</v>
+        <v>344354</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>292956</v>
+        <v>288917</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>187724</v>
+        <v>189151</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>324206</v>
+        <v>325521</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>153382</v>
+        <v>152964</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>156191</v>
+        <v>154247</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>111828</v>
+        <v>113047</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>180284</v>
+        <v>183148</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>247455</v>
+        <v>250039</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>198112</v>
+        <v>197005</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>131155</v>
+        <v>130549</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>197502</v>
+        <v>198821</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>390532</v>
+        <v>392951</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>342883</v>
+        <v>341425</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>235398</v>
+        <v>231109</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>371995</v>
+        <v>371645</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>129935</v>
+        <v>127875</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>120034</v>
+        <v>119508</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>186605</v>
+        <v>187145</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>144437</v>
+        <v>139945</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>206945</v>
+        <v>206161</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>176666</v>
+        <v>175693</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>226582</v>
+        <v>227835</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>202043</v>
+        <v>202572</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>345802</v>
+        <v>347965</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>311800</v>
+        <v>305710</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>423960</v>
+        <v>424999</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>359529</v>
+        <v>358528</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>166865</v>
+        <v>165609</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>159837</v>
+        <v>160694</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>224725</v>
+        <v>227072</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>191475</v>
+        <v>192594</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>242674</v>
+        <v>242598</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>218438</v>
+        <v>217115</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>264150</v>
+        <v>268161</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>243552</v>
+        <v>243328</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>398546</v>
+        <v>396374</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>368148</v>
+        <v>364722</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>479662</v>
+        <v>479390</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>424331</v>
+        <v>422106</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55035</v>
+        <v>57473</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>79898</v>
+        <v>79749</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>51911</v>
+        <v>52863</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>71248</v>
+        <v>70556</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>86244</v>
+        <v>87190</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>113475</v>
+        <v>111370</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>71771</v>
+        <v>72494</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>103976</v>
+        <v>103762</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>151415</v>
+        <v>152978</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>202101</v>
+        <v>201769</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>131560</v>
+        <v>133169</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>182537</v>
+        <v>181994</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>82643</v>
+        <v>82590</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>111733</v>
+        <v>109266</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>79691</v>
+        <v>80484</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>94931</v>
+        <v>95151</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>115874</v>
+        <v>117178</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>142824</v>
+        <v>141384</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>101229</v>
+        <v>101033</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>126061</v>
+        <v>125191</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>190283</v>
+        <v>191769</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>245154</v>
+        <v>243746</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>170321</v>
+        <v>172910</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>214495</v>
+        <v>215105</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>101633</v>
+        <v>101187</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>113409</v>
+        <v>112592</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>77242</v>
+        <v>77450</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>133024</v>
+        <v>133033</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>175791</v>
+        <v>175204</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>139591</v>
+        <v>141593</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>108307</v>
+        <v>107409</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>149965</v>
+        <v>151497</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>284786</v>
+        <v>284410</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>262416</v>
+        <v>263808</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>193145</v>
+        <v>194134</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>291111</v>
+        <v>290706</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>134973</v>
+        <v>134285</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>146796</v>
+        <v>145952</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>108429</v>
+        <v>108163</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>162553</v>
+        <v>162441</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>204461</v>
+        <v>206569</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>172418</v>
+        <v>174645</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>139688</v>
+        <v>142103</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>176201</v>
+        <v>178333</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>330365</v>
+        <v>329890</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>310631</v>
+        <v>310371</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>237838</v>
+        <v>239073</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>330762</v>
+        <v>330917</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>257733</v>
+        <v>256803</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>252163</v>
+        <v>250578</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>228146</v>
+        <v>227349</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>319407</v>
+        <v>318376</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>341991</v>
+        <v>340594</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>341236</v>
+        <v>337604</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>313891</v>
+        <v>310678</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>376350</v>
+        <v>372734</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>613694</v>
+        <v>611889</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>604931</v>
+        <v>604549</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>552903</v>
+        <v>553051</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>708876</v>
+        <v>711509</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>308203</v>
+        <v>304953</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>303528</v>
+        <v>304691</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>277103</v>
+        <v>280007</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>379039</v>
+        <v>383014</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>392324</v>
+        <v>389727</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>394486</v>
+        <v>394002</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>367190</v>
+        <v>366789</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>426909</v>
+        <v>424696</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>679392</v>
+        <v>685774</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>682608</v>
+        <v>680112</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>633648</v>
+        <v>630406</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>792606</v>
+        <v>795924</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>257538</v>
+        <v>258204</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>296826</v>
+        <v>294267</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>221444</v>
+        <v>224171</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>218439</v>
+        <v>218060</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>339652</v>
+        <v>342425</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>378648</v>
+        <v>380451</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>321106</v>
+        <v>320981</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>304949</v>
+        <v>307860</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>610987</v>
+        <v>612337</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>694201</v>
+        <v>690331</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>561049</v>
+        <v>557942</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>539900</v>
+        <v>538385</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>310127</v>
+        <v>309843</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>352671</v>
+        <v>351463</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>274462</v>
+        <v>274897</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>269924</v>
+        <v>269388</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>395591</v>
+        <v>399542</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>435989</v>
+        <v>439029</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>377469</v>
+        <v>381292</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>354302</v>
+        <v>354809</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>689623</v>
+        <v>691074</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>776764</v>
+        <v>773915</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>638056</v>
+        <v>637531</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>609990</v>
+        <v>608494</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1341965</v>
+        <v>1336796</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1445232</v>
+        <v>1448023</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1268098</v>
+        <v>1255147</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1535266</v>
+        <v>1533830</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1867012</v>
+        <v>1871572</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1865313</v>
+        <v>1866993</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1633430</v>
+        <v>1635818</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1912668</v>
+        <v>1914342</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3239001</v>
+        <v>3243155</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>3354090</v>
+        <v>3352619</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2920616</v>
+        <v>2931046</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>3482738</v>
+        <v>3474622</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1458655</v>
+        <v>1449845</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1568969</v>
+        <v>1569492</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1386257</v>
+        <v>1378417</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1663171</v>
+        <v>1665119</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1984335</v>
+        <v>1987844</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1989355</v>
+        <v>1992996</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1762345</v>
+        <v>1761865</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2022664</v>
+        <v>2028430</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3400042</v>
+        <v>3404198</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>3530737</v>
+        <v>3522678</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>3094046</v>
+        <v>3095063</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>3649231</v>
+        <v>3651505</v>
       </c>
     </row>
     <row r="40">
